--- a/게임 플레이 목록_240417.xlsx
+++ b/게임 플레이 목록_240417.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E99966E-21E9-496C-991F-4300AB09F642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E2D6B1-B3B3-4742-AF8E-321D5D7C22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
@@ -1743,6 +1743,20 @@
 시너지 딜러 및 버퍼의 경우 퓨어 딜러보다 레이드 파티 입장에 유리하지만, 솔로 플레이 콘텐츠에서 퓨어 딜러보다 콘텐츠 클리어에 유불리 존재</t>
   </si>
   <si>
+    <t>(시너지 삭제 패치 이전)
+眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
+(24년 4월 4일 이후 플레이)
+명성 52108 眞 헌터, 명성 48245 眞 비질란테 메인 캐릭터 플레이
+&lt;레이드&gt;
+(시너지 삭제 패치 이전)
+시로코 출시 1주차 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.04.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(장점)
 1. 캐릭터, 장비 세팅에 따라 다양한 조작감
 - 방어구에서 출혈/중독/감전 등 상변 세팅(데미지형 상태이상)과 수면/아칸 등 비상변 세팅, 무기에서 스킬 데미지가 증가하는 근원과 캐릭터의 단점을 보완해 주는 결전같이 다양한 세팅에 따라 같은 캐릭터임에도 조작감이 다름
@@ -1758,7 +1772,7 @@
 2) 이동 편의성
 - 세리아방 바로 가기 버튼, 맵 이동 포탈 버튼으로 이동 동선 간소화
 3) 인게임 가이드 퀘스트
-- 가이드 퀘스트 및 110레벨 달성 시 스펙업과 던전 가이드 관련 미션 시스템을 제공해 보상 및 시스템에 익숙해지도록 설계
+- 가이드 퀘스트 및 110레벨 달성 시 스펙업 관련 가이드 미션 시스템으로 보상을 제공해 시스템에 익숙해지도록 설계
 4. 다양한 육성 요소로 챙긴 저점과 고점 
 1) 확정 스펙업
 - 경계의 파편을 통한 장비 레벨 상승, 마법 부여 시스템을 통해 장비에 추가 스텟, 레이드 클리어 시 얻을 수 있는 융합 에픽을 합성해 높은 수치의 옵션을 획득, 그 외에도 크리쳐/칭호/아바타/탈리스만 등 육성 저점을 보장하는 요소 존재
@@ -1771,20 +1785,6 @@
 → 인게임 밸런스 유지에 도움, 신규/복귀 유저의 경우 제한된 인게임 재화 생산량으로 과금을 하거나 반강제 서브 캐릭터 육성
 2. 육성 지원 이벤트 없이 키울 시 높은 육성 피로도 존재
 - 스토리 구간 간소화했음에도 다년간 서비스로 인한 긴 스토리로, 서브 캐릭터 육성 시 이미 본 스토리를 재반복하느라 높은 피로도 존재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(시너지 삭제 패치 이전)
-眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
-(24년 4월 4일 이후 플레이)
-명성 52108 眞 헌터, 명성 48245 眞 비질란테 메인 캐릭터 플레이
-&lt;레이드&gt;
-(시너지 삭제 패치 이전)
-시로코 출시 1주차 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.04.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2690,7 +2690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -2741,7 +2741,7 @@
         <v>65</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K2" s="30"/>
     </row>
@@ -3012,16 +3012,16 @@
         <v>161</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J14" s="46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="43"/>
@@ -3033,7 +3033,7 @@
       <c r="I15" s="47"/>
       <c r="J15" s="47"/>
     </row>
-    <row r="16" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45"/>
       <c r="B16" s="41"/>
       <c r="C16" s="43"/>

--- a/게임 플레이 목록_240417.xlsx
+++ b/게임 플레이 목록_240417.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E2D6B1-B3B3-4742-AF8E-321D5D7C22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07ED930-8003-4D47-BF9A-D61D8BEC6244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
@@ -1743,16 +1743,6 @@
 시너지 딜러 및 버퍼의 경우 퓨어 딜러보다 레이드 파티 입장에 유리하지만, 솔로 플레이 콘텐츠에서 퓨어 딜러보다 콘텐츠 클리어에 유불리 존재</t>
   </si>
   <si>
-    <t>(시너지 삭제 패치 이전)
-眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
-(24년 4월 4일 이후 플레이)
-명성 52108 眞 헌터, 명성 48245 眞 비질란테 메인 캐릭터 플레이
-&lt;레이드&gt;
-(시너지 삭제 패치 이전)
-시로코 출시 1주차 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024.04.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1785,6 +1775,16 @@
 → 인게임 밸런스 유지에 도움, 신규/복귀 유저의 경우 제한된 인게임 재화 생산량으로 과금을 하거나 반강제 서브 캐릭터 육성
 2. 육성 지원 이벤트 없이 키울 시 높은 육성 피로도 존재
 - 스토리 구간 간소화했음에도 다년간 서비스로 인한 긴 스토리로, 서브 캐릭터 육성 시 이미 본 스토리를 재반복하느라 높은 피로도 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(시너지 삭제 패치 이전 플레이)
+眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
+(24년 4월 4일 이후 플레이)
+명성 52108 眞 헌터, 명성 48245 眞 비질란테 메인 캐릭터 플레이
+&lt;레이드&gt;
+(시너지 삭제 패치 이전)
+시로코 출시 1주차 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2252,12 +2252,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2266,45 +2305,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2690,7 +2690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14:I16"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -2741,7 +2741,7 @@
         <v>65</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K2" s="30"/>
     </row>
@@ -2866,10 +2866,10 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2895,8 +2895,8 @@
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2920,8 +2920,8 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2945,8 +2945,8 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
@@ -2970,8 +2970,8 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
@@ -2992,65 +2992,65 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="40">
+      <c r="A14" s="43">
         <v>6</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="I14" s="46" t="s">
+      <c r="H14" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="I14" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="40" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
@@ -3074,8 +3074,8 @@
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="17" t="s">
         <v>0</v>
       </c>
@@ -3126,8 +3126,8 @@
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3153,8 +3153,8 @@
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="17" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3235,8 +3235,8 @@
       <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3262,8 +3262,8 @@
       <c r="A25" s="16">
         <v>15</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
@@ -3287,8 +3287,8 @@
       <c r="A26" s="16">
         <v>16</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="17" t="s">
         <v>36</v>
       </c>
@@ -3315,8 +3315,8 @@
       <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3345,8 +3345,8 @@
       <c r="A28" s="16">
         <v>18</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="A30" s="16">
         <v>20</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="A31" s="16">
         <v>21</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="17" t="s">
         <v>74</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="21" t="s">
         <v>19</v>
       </c>
@@ -3487,8 +3487,8 @@
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3515,7 +3515,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="44"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
@@ -3552,10 +3552,10 @@
       <c r="A36" s="16">
         <v>25</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3584,8 +3584,8 @@
       <c r="A37" s="16">
         <v>26</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
@@ -3609,8 +3609,8 @@
       <c r="A38" s="16">
         <v>27</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="17" t="s">
         <v>223</v>
       </c>
@@ -3637,8 +3637,8 @@
       <c r="A39" s="16">
         <v>28</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="17" t="s">
         <v>33</v>
       </c>
@@ -3665,8 +3665,8 @@
       <c r="A40" s="16">
         <v>29</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="17" t="s">
         <v>110</v>
       </c>
@@ -3693,8 +3693,8 @@
       <c r="A41" s="16">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
@@ -3718,8 +3718,8 @@
       <c r="A42" s="16">
         <v>31</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
@@ -3746,8 +3746,8 @@
       <c r="A43" s="16">
         <v>32</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="17" t="s">
         <v>57</v>
       </c>
@@ -3774,8 +3774,8 @@
       <c r="A44" s="16">
         <v>33</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42" t="s">
+      <c r="B44" s="44"/>
+      <c r="C44" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3804,8 +3804,8 @@
       <c r="A45" s="16">
         <v>34</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3829,8 +3829,8 @@
       <c r="A46" s="16">
         <v>35</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="17" t="s">
         <v>224</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="A47" s="16">
         <v>36</v>
       </c>
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="20" t="s">
         <v>9</v>
       </c>
@@ -3884,8 +3884,8 @@
       <c r="A48" s="16">
         <v>37</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3914,8 +3914,8 @@
       <c r="A49" s="16">
         <v>38</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="17" t="s">
         <v>35</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="A50" s="16">
         <v>39</v>
       </c>
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="A51" s="16">
         <v>40</v>
       </c>
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="17" t="s">
         <v>59</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="A52" s="16">
         <v>41</v>
       </c>
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="17" t="s">
         <v>43</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="A53" s="16">
         <v>42</v>
       </c>
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="21" t="s">
         <v>24</v>
       </c>
@@ -4056,8 +4056,8 @@
       <c r="A54" s="16">
         <v>43</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4086,8 +4086,8 @@
       <c r="A55" s="16">
         <v>44</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="17" t="s">
         <v>63</v>
       </c>
@@ -4114,8 +4114,8 @@
       <c r="A56" s="16">
         <v>45</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="42" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="55" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4141,8 +4141,8 @@
       <c r="A57" s="16">
         <v>46</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="45"/>
-      <c r="C58" s="44"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
@@ -4204,10 +4204,10 @@
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -4236,8 +4236,8 @@
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="17" t="s">
         <v>105</v>
       </c>
@@ -4264,8 +4264,8 @@
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="17" t="s">
         <v>109</v>
       </c>
@@ -4292,8 +4292,8 @@
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42" t="s">
+      <c r="B63" s="44"/>
+      <c r="C63" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4322,8 +4322,8 @@
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="17" t="s">
         <v>107</v>
       </c>
@@ -4350,8 +4350,8 @@
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="17" t="s">
         <v>108</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="17" t="s">
         <v>37</v>
       </c>
@@ -4406,14 +4406,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C24:C26"/>
@@ -4430,6 +4422,14 @@
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C9:C13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/게임 플레이 목록_240417.xlsx
+++ b/게임 플레이 목록_240417.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07ED930-8003-4D47-BF9A-D61D8BEC6244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592A7F40-E717-4C8A-853E-73120E8D3CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
@@ -1747,6 +1747,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(시너지 삭제 패치 이전 플레이)
+眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
+(24년 4월 4일 이후 플레이)
+명성 52108 眞 헌터, 명성 48245 眞 비질란테 메인 캐릭터 플레이
+&lt;레이드&gt;
+(시너지 삭제 패치 이전)
+시로코 출시 1주차 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(장점)
 1. 캐릭터, 장비 세팅에 따라 다양한 조작감
 - 방어구에서 출혈/중독/감전 등 상변 세팅(데미지형 상태이상)과 수면/아칸 등 비상변 세팅, 무기에서 스킬 데미지가 증가하는 근원과 캐릭터의 단점을 보완해 주는 결전같이 다양한 세팅에 따라 같은 캐릭터임에도 조작감이 다름
@@ -1761,8 +1771,8 @@
 - 이벤트로 솔로 플레이 공격력 증가 및 던전 난이도 선택이 가능해 원할 시 빠른 플레이 가능
 2) 이동 편의성
 - 세리아방 바로 가기 버튼, 맵 이동 포탈 버튼으로 이동 동선 간소화
-3) 인게임 가이드 퀘스트
-- 가이드 퀘스트 및 110레벨 달성 시 스펙업 관련 가이드 미션 시스템으로 보상을 제공해 시스템에 익숙해지도록 설계
+3) 성장/장비 가이드
+- 110레벨 달성 시 스펙업 관련 성장/장비 가이드 시스템으로 보상을 제공해 시스템에 익숙해지도록 설계
 4. 다양한 육성 요소로 챙긴 저점과 고점 
 1) 확정 스펙업
 - 경계의 파편을 통한 장비 레벨 상승, 마법 부여 시스템을 통해 장비에 추가 스텟, 레이드 클리어 시 얻을 수 있는 융합 에픽을 합성해 높은 수치의 옵션을 획득, 그 외에도 크리쳐/칭호/아바타/탈리스만 등 육성 저점을 보장하는 요소 존재
@@ -1775,16 +1785,6 @@
 → 인게임 밸런스 유지에 도움, 신규/복귀 유저의 경우 제한된 인게임 재화 생산량으로 과금을 하거나 반강제 서브 캐릭터 육성
 2. 육성 지원 이벤트 없이 키울 시 높은 육성 피로도 존재
 - 스토리 구간 간소화했음에도 다년간 서비스로 인한 긴 스토리로, 서브 캐릭터 육성 시 이미 본 스토리를 재반복하느라 높은 피로도 존재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(시너지 삭제 패치 이전 플레이)
-眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
-(24년 4월 4일 이후 플레이)
-명성 52108 眞 헌터, 명성 48245 眞 비질란테 메인 캐릭터 플레이
-&lt;레이드&gt;
-(시너지 삭제 패치 이전)
-시로코 출시 1주차 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2690,7 +2690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14:H16"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -3012,10 +3012,10 @@
         <v>161</v>
       </c>
       <c r="H14" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>232</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>231</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>229</v>

--- a/게임 플레이 목록_240417.xlsx
+++ b/게임 플레이 목록_240417.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592A7F40-E717-4C8A-853E-73120E8D3CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B675CD7-FDAA-4CD2-9C19-0A272C86EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="16200" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
   <sheets>
     <sheet name="게임 플레이 목록" sheetId="1" r:id="rId1"/>
@@ -1762,7 +1762,7 @@
 - 방어구에서 출혈/중독/감전 등 상변 세팅(데미지형 상태이상)과 수면/아칸 등 비상변 세팅, 무기에서 스킬 데미지가 증가하는 근원과 캐릭터의 단점을 보완해 주는 결전같이 다양한 세팅에 따라 같은 캐릭터임에도 조작감이 다름
 - 물리/마법/하이브리드형 및 외전 포함한 67개의 직업과 직업에서도 어떤 스킬을 주력으로 사용하느냐에 따라 플레이 감각이 다양한 플레이 감각을 느낄 수 있음
 2. 신규/복귀 유저 지원 및 육성 이벤트로 쉬운 진입
-- 신규 캐릭터 출시 육성 이벤트로 인기 에픽 장비 기본 지급(출혈 세팅) 및 현 시즌 최종 장비(딥 다이버 마스크)를 직접 제작하게 만듦으로써 신규 캐릭터의 재미를 빠르게 느끼도록 설계
+- 신규 캐릭터 출시 육성 이벤트로 인기 에픽 장비 기본 지급(출혈 세팅) 및 현 시즌 3.8유효급 커스텀 장비(딥 다이버 마스크, 던파맥스 헌터/비질란테 기준)를 직접 제작하게 만듦으로써 신규 캐릭터의 재미를 빠르게 느끼도록 설계
 - 신규/복귀 유저가 쉽게 적응하도록 기본적인 세팅(탈리스만, 스위칭)을 무료로 지원하고 빠르게 최종 레이드에 진입하도록 돕는 신규 유저용 패키지를 판매하는 등 BM과도 연계 
 3. 다양한 플레이 편의성 존재
 1) 플레이 편의성
@@ -2252,6 +2252,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2261,15 +2279,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2296,15 +2305,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2693,25 +2693,25 @@
       <selection pane="bottomLeft" activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="17" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.19921875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="39.69921875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.25" style="33" customWidth="1"/>
+    <col min="9" max="9" width="39.75" style="18" customWidth="1"/>
     <col min="10" max="10" width="34.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.69921875" style="34" customWidth="1"/>
-    <col min="12" max="13" width="9.19921875" style="1"/>
-    <col min="14" max="14" width="33.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.19921875" style="1"/>
+    <col min="11" max="11" width="30.75" style="34" customWidth="1"/>
+    <col min="12" max="13" width="9.25" style="1"/>
+    <col min="14" max="14" width="33.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="22"/>
@@ -2724,7 +2724,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="29"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="22"/>
       <c r="C2" s="39"/>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="K2" s="30"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="22"/>
       <c r="C3" s="39"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="22"/>
       <c r="C4" s="39"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="16.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="22"/>
       <c r="C5" s="39"/>
@@ -2801,7 +2801,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" ht="16.2" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="17.25" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -2816,7 +2816,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="16.5" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -2829,7 +2829,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="29"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>53</v>
       </c>
@@ -2862,14 +2862,14 @@
       </c>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="240" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="252" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2891,12 +2891,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="330" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="378" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2916,12 +2916,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2941,12 +2941,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="236.25" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
@@ -2966,12 +2966,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="240" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="252" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
@@ -2991,66 +2991,66 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43">
+    <row r="14" spans="1:11" ht="400.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
         <v>6</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.4">
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+    </row>
+    <row r="17" spans="1:10" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
@@ -3070,12 +3070,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
@@ -3095,11 +3095,11 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="17" t="s">
         <v>0</v>
       </c>
@@ -3122,12 +3122,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3149,12 +3149,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="17" t="s">
         <v>6</v>
       </c>
@@ -3174,11 +3174,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="150" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="204.75" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
@@ -3201,11 +3201,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="141.75" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3231,12 +3231,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3258,12 +3258,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>15</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
@@ -3283,12 +3283,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>16</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="17" t="s">
         <v>36</v>
       </c>
@@ -3311,12 +3311,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3341,12 +3341,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>18</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
@@ -3366,11 +3366,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="105" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
@@ -3396,11 +3396,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>20</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
@@ -3426,11 +3426,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>21</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="17" t="s">
         <v>74</v>
       </c>
@@ -3453,11 +3453,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="21" t="s">
         <v>19</v>
       </c>
@@ -3483,12 +3483,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3510,12 +3510,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>24</v>
       </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
       <c r="B35" s="1"/>
       <c r="C35" s="22"/>
@@ -3548,14 +3548,14 @@
       <c r="J35" s="38"/>
       <c r="K35" s="29"/>
     </row>
-    <row r="36" spans="1:11" ht="315" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>25</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="42" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3580,12 +3580,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="90" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>26</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
@@ -3605,12 +3605,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="189" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>27</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="56"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="17" t="s">
         <v>223</v>
       </c>
@@ -3633,12 +3633,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="240" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="252" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>28</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="56"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="17" t="s">
         <v>33</v>
       </c>
@@ -3661,12 +3661,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>29</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="17" t="s">
         <v>110</v>
       </c>
@@ -3689,12 +3689,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="165" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="189" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>30</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
@@ -3714,12 +3714,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="135" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>31</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="56"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
@@ -3742,12 +3742,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>32</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="56"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="17" t="s">
         <v>57</v>
       </c>
@@ -3770,12 +3770,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>33</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="55" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="42" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3800,12 +3800,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>34</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="56"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3825,12 +3825,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="90" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>35</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="56"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="17" t="s">
         <v>224</v>
       </c>
@@ -3853,11 +3853,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="90" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>36</v>
       </c>
-      <c r="B47" s="44"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="20" t="s">
         <v>9</v>
       </c>
@@ -3880,12 +3880,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>37</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3910,12 +3910,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="105" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>38</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="57"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="17" t="s">
         <v>35</v>
       </c>
@@ -3938,11 +3938,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>39</v>
       </c>
-      <c r="B50" s="44"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
@@ -3968,11 +3968,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="120" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" ht="126" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>40</v>
       </c>
-      <c r="B51" s="44"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="17" t="s">
         <v>59</v>
       </c>
@@ -3995,11 +3995,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" ht="63" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>41</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="17" t="s">
         <v>43</v>
       </c>
@@ -4022,11 +4022,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>42</v>
       </c>
-      <c r="B53" s="44"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="21" t="s">
         <v>24</v>
       </c>
@@ -4052,12 +4052,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="195" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" ht="204.75" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>43</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="55" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4082,12 +4082,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>44</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="56"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="17" t="s">
         <v>63</v>
       </c>
@@ -4110,12 +4110,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="105" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>45</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="55" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="42" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4137,12 +4137,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="105" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>46</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="56"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
@@ -4162,12 +4162,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="60" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>47</v>
       </c>
       <c r="B58" s="45"/>
-      <c r="C58" s="57"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="10"/>
       <c r="B59" s="1"/>
       <c r="C59" s="22"/>
@@ -4200,14 +4200,14 @@
       <c r="J59" s="11"/>
       <c r="K59" s="29"/>
     </row>
-    <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" ht="78.75" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -4232,12 +4232,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="56"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="17" t="s">
         <v>105</v>
       </c>
@@ -4260,12 +4260,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="56"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="17" t="s">
         <v>109</v>
       </c>
@@ -4288,12 +4288,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" ht="157.5" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="42" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4318,12 +4318,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="135" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" ht="141.75" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="56"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="17" t="s">
         <v>107</v>
       </c>
@@ -4346,12 +4346,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="150" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="57"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="17" t="s">
         <v>108</v>
       </c>
@@ -4374,11 +4374,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="135" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="141.75" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="44"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="17" t="s">
         <v>37</v>
       </c>
@@ -4406,6 +4406,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C24:C26"/>
@@ -4422,14 +4430,6 @@
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C9:C13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/게임 플레이 목록_240417.xlsx
+++ b/게임 플레이 목록_240417.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B675CD7-FDAA-4CD2-9C19-0A272C86EC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C983AA6-7110-47F2-93A4-47890ACD130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="16200" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
@@ -1762,7 +1762,7 @@
 - 방어구에서 출혈/중독/감전 등 상변 세팅(데미지형 상태이상)과 수면/아칸 등 비상변 세팅, 무기에서 스킬 데미지가 증가하는 근원과 캐릭터의 단점을 보완해 주는 결전같이 다양한 세팅에 따라 같은 캐릭터임에도 조작감이 다름
 - 물리/마법/하이브리드형 및 외전 포함한 67개의 직업과 직업에서도 어떤 스킬을 주력으로 사용하느냐에 따라 플레이 감각이 다양한 플레이 감각을 느낄 수 있음
 2. 신규/복귀 유저 지원 및 육성 이벤트로 쉬운 진입
-- 신규 캐릭터 출시 육성 이벤트로 인기 에픽 장비 기본 지급(출혈 세팅) 및 현 시즌 3.8유효급 커스텀 장비(딥 다이버 마스크, 던파맥스 헌터/비질란테 기준)를 직접 제작하게 만듦으로써 신규 캐릭터의 재미를 빠르게 느끼도록 설계
+- 신규 캐릭터 출시 육성 이벤트로 인기 에픽 장비 기본 지급(출혈 세팅) 및 현 시즌 3.8유효급 커스텀 장비(딥 다이버 마스크, 던파맥스 헌터/비질란테 기준)를 직접 제작하게 만들면서 신규 캐릭터의 재미를 빠르게 느끼도록 설계
 - 신규/복귀 유저가 쉽게 적응하도록 기본적인 세팅(탈리스만, 스위칭)을 무료로 지원하고 빠르게 최종 레이드에 진입하도록 돕는 신규 유저용 패키지를 판매하는 등 BM과도 연계 
 3. 다양한 플레이 편의성 존재
 1) 플레이 편의성
@@ -2252,12 +2252,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2266,45 +2305,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2866,10 +2866,10 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2895,8 +2895,8 @@
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2920,8 +2920,8 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2945,8 +2945,8 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
@@ -2970,8 +2970,8 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
@@ -2992,65 +2992,65 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="400.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="A14" s="43">
         <v>6</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="40" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
@@ -3074,8 +3074,8 @@
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="17" t="s">
         <v>0</v>
       </c>
@@ -3126,8 +3126,8 @@
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3153,8 +3153,8 @@
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="17" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3235,8 +3235,8 @@
       <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3262,8 +3262,8 @@
       <c r="A25" s="16">
         <v>15</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
@@ -3287,8 +3287,8 @@
       <c r="A26" s="16">
         <v>16</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="17" t="s">
         <v>36</v>
       </c>
@@ -3315,8 +3315,8 @@
       <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3345,8 +3345,8 @@
       <c r="A28" s="16">
         <v>18</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="A30" s="16">
         <v>20</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="A31" s="16">
         <v>21</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="17" t="s">
         <v>74</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="21" t="s">
         <v>19</v>
       </c>
@@ -3487,8 +3487,8 @@
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3515,7 +3515,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="44"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
@@ -3552,10 +3552,10 @@
       <c r="A36" s="16">
         <v>25</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3584,8 +3584,8 @@
       <c r="A37" s="16">
         <v>26</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
@@ -3609,8 +3609,8 @@
       <c r="A38" s="16">
         <v>27</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="17" t="s">
         <v>223</v>
       </c>
@@ -3637,8 +3637,8 @@
       <c r="A39" s="16">
         <v>28</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="17" t="s">
         <v>33</v>
       </c>
@@ -3665,8 +3665,8 @@
       <c r="A40" s="16">
         <v>29</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="17" t="s">
         <v>110</v>
       </c>
@@ -3693,8 +3693,8 @@
       <c r="A41" s="16">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
@@ -3718,8 +3718,8 @@
       <c r="A42" s="16">
         <v>31</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
@@ -3746,8 +3746,8 @@
       <c r="A43" s="16">
         <v>32</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="17" t="s">
         <v>57</v>
       </c>
@@ -3774,8 +3774,8 @@
       <c r="A44" s="16">
         <v>33</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42" t="s">
+      <c r="B44" s="44"/>
+      <c r="C44" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3804,8 +3804,8 @@
       <c r="A45" s="16">
         <v>34</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3829,8 +3829,8 @@
       <c r="A46" s="16">
         <v>35</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="17" t="s">
         <v>224</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="A47" s="16">
         <v>36</v>
       </c>
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="20" t="s">
         <v>9</v>
       </c>
@@ -3884,8 +3884,8 @@
       <c r="A48" s="16">
         <v>37</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3914,8 +3914,8 @@
       <c r="A49" s="16">
         <v>38</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="17" t="s">
         <v>35</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="A50" s="16">
         <v>39</v>
       </c>
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="A51" s="16">
         <v>40</v>
       </c>
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="17" t="s">
         <v>59</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="A52" s="16">
         <v>41</v>
       </c>
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="17" t="s">
         <v>43</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="A53" s="16">
         <v>42</v>
       </c>
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="21" t="s">
         <v>24</v>
       </c>
@@ -4056,8 +4056,8 @@
       <c r="A54" s="16">
         <v>43</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4086,8 +4086,8 @@
       <c r="A55" s="16">
         <v>44</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="17" t="s">
         <v>63</v>
       </c>
@@ -4114,8 +4114,8 @@
       <c r="A56" s="16">
         <v>45</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="42" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="55" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4141,8 +4141,8 @@
       <c r="A57" s="16">
         <v>46</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="45"/>
-      <c r="C58" s="44"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
@@ -4204,10 +4204,10 @@
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -4236,8 +4236,8 @@
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="17" t="s">
         <v>105</v>
       </c>
@@ -4264,8 +4264,8 @@
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="17" t="s">
         <v>109</v>
       </c>
@@ -4292,8 +4292,8 @@
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42" t="s">
+      <c r="B63" s="44"/>
+      <c r="C63" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4322,8 +4322,8 @@
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="17" t="s">
         <v>107</v>
       </c>
@@ -4350,8 +4350,8 @@
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="17" t="s">
         <v>108</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="17" t="s">
         <v>37</v>
       </c>
@@ -4406,14 +4406,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C24:C26"/>
@@ -4430,6 +4422,14 @@
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C9:C13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/게임 플레이 목록_240417.xlsx
+++ b/게임 플레이 목록_240417.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C983AA6-7110-47F2-93A4-47890ACD130F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08015EAD-796F-4217-92C7-0E016F404E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="16200" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
@@ -1747,16 +1747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(시너지 삭제 패치 이전 플레이)
-眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
-(24년 4월 4일 이후 플레이)
-명성 52108 眞 헌터, 명성 48245 眞 비질란테 메인 캐릭터 플레이
-&lt;레이드&gt;
-(시너지 삭제 패치 이전)
-시로코 출시 1주차 클리어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(장점)
 1. 캐릭터, 장비 세팅에 따라 다양한 조작감
 - 방어구에서 출혈/중독/감전 등 상변 세팅(데미지형 상태이상)과 수면/아칸 등 비상변 세팅, 무기에서 스킬 데미지가 증가하는 근원과 캐릭터의 단점을 보완해 주는 결전같이 다양한 세팅에 따라 같은 캐릭터임에도 조작감이 다름
@@ -1785,6 +1775,18 @@
 → 인게임 밸런스 유지에 도움, 신규/복귀 유저의 경우 제한된 인게임 재화 생산량으로 과금을 하거나 반강제 서브 캐릭터 육성
 2. 육성 지원 이벤트 없이 키울 시 높은 육성 피로도 존재
 - 스토리 구간 간소화했음에도 다년간 서비스로 인한 긴 스토리로, 서브 캐릭터 육성 시 이미 본 스토리를 재반복하느라 높은 피로도 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(시너지 삭제 패치 이전 플레이)
+眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
+(24년 4월 4일 이후 플레이)
+2463억 명성 52987 眞 헌터
+1066억 명성 50291 眞 비질란테 
+메인 캐릭터 플레이 (던담 기준)
+&lt;레이드&gt;
+(시너지 삭제 패치 이전)
+시로코 출시 1주차 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2252,6 +2254,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2261,15 +2281,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2296,15 +2307,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2689,8 +2691,8 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14:I16"/>
+      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2866,10 +2868,10 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2895,8 +2897,8 @@
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2920,8 +2922,8 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2945,8 +2947,8 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
@@ -2970,8 +2972,8 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
@@ -2992,65 +2994,65 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="400.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="40">
         <v>6</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="I14" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="46" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
@@ -3074,8 +3076,8 @@
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
@@ -3099,7 +3101,7 @@
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="17" t="s">
         <v>0</v>
       </c>
@@ -3126,8 +3128,8 @@
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3153,8 +3155,8 @@
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="17" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3180,7 @@
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
@@ -3205,7 +3207,7 @@
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3235,8 +3237,8 @@
       <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3262,8 +3264,8 @@
       <c r="A25" s="16">
         <v>15</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
@@ -3287,8 +3289,8 @@
       <c r="A26" s="16">
         <v>16</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="17" t="s">
         <v>36</v>
       </c>
@@ -3315,8 +3317,8 @@
       <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3345,8 +3347,8 @@
       <c r="A28" s="16">
         <v>18</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
@@ -3370,7 +3372,7 @@
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
@@ -3400,7 +3402,7 @@
       <c r="A30" s="16">
         <v>20</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
@@ -3430,7 +3432,7 @@
       <c r="A31" s="16">
         <v>21</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="17" t="s">
         <v>74</v>
       </c>
@@ -3457,7 +3459,7 @@
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="21" t="s">
         <v>19</v>
       </c>
@@ -3487,8 +3489,8 @@
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3515,7 +3517,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
@@ -3552,10 +3554,10 @@
       <c r="A36" s="16">
         <v>25</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="42" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3584,8 +3586,8 @@
       <c r="A37" s="16">
         <v>26</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
@@ -3609,8 +3611,8 @@
       <c r="A38" s="16">
         <v>27</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="56"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="17" t="s">
         <v>223</v>
       </c>
@@ -3637,8 +3639,8 @@
       <c r="A39" s="16">
         <v>28</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="56"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="17" t="s">
         <v>33</v>
       </c>
@@ -3665,8 +3667,8 @@
       <c r="A40" s="16">
         <v>29</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="17" t="s">
         <v>110</v>
       </c>
@@ -3693,8 +3695,8 @@
       <c r="A41" s="16">
         <v>30</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
@@ -3718,8 +3720,8 @@
       <c r="A42" s="16">
         <v>31</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="56"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
@@ -3746,8 +3748,8 @@
       <c r="A43" s="16">
         <v>32</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="56"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="17" t="s">
         <v>57</v>
       </c>
@@ -3774,8 +3776,8 @@
       <c r="A44" s="16">
         <v>33</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="55" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="42" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3804,8 +3806,8 @@
       <c r="A45" s="16">
         <v>34</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="56"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3829,8 +3831,8 @@
       <c r="A46" s="16">
         <v>35</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="56"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="17" t="s">
         <v>224</v>
       </c>
@@ -3857,7 +3859,7 @@
       <c r="A47" s="16">
         <v>36</v>
       </c>
-      <c r="B47" s="44"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="20" t="s">
         <v>9</v>
       </c>
@@ -3884,8 +3886,8 @@
       <c r="A48" s="16">
         <v>37</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3914,8 +3916,8 @@
       <c r="A49" s="16">
         <v>38</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="57"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="17" t="s">
         <v>35</v>
       </c>
@@ -3942,7 +3944,7 @@
       <c r="A50" s="16">
         <v>39</v>
       </c>
-      <c r="B50" s="44"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
@@ -3972,7 +3974,7 @@
       <c r="A51" s="16">
         <v>40</v>
       </c>
-      <c r="B51" s="44"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="17" t="s">
         <v>59</v>
       </c>
@@ -3999,7 +4001,7 @@
       <c r="A52" s="16">
         <v>41</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="17" t="s">
         <v>43</v>
       </c>
@@ -4026,7 +4028,7 @@
       <c r="A53" s="16">
         <v>42</v>
       </c>
-      <c r="B53" s="44"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="21" t="s">
         <v>24</v>
       </c>
@@ -4056,8 +4058,8 @@
       <c r="A54" s="16">
         <v>43</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="55" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4086,8 +4088,8 @@
       <c r="A55" s="16">
         <v>44</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="56"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="17" t="s">
         <v>63</v>
       </c>
@@ -4114,8 +4116,8 @@
       <c r="A56" s="16">
         <v>45</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="55" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="42" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4141,8 +4143,8 @@
       <c r="A57" s="16">
         <v>46</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="56"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
@@ -4167,7 +4169,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="45"/>
-      <c r="C58" s="57"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
@@ -4204,10 +4206,10 @@
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -4236,8 +4238,8 @@
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="56"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="17" t="s">
         <v>105</v>
       </c>
@@ -4264,8 +4266,8 @@
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="56"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="17" t="s">
         <v>109</v>
       </c>
@@ -4292,8 +4294,8 @@
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="42" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4322,8 +4324,8 @@
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="56"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="17" t="s">
         <v>107</v>
       </c>
@@ -4350,8 +4352,8 @@
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="57"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="17" t="s">
         <v>108</v>
       </c>
@@ -4378,7 +4380,7 @@
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="44"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="17" t="s">
         <v>37</v>
       </c>
@@ -4406,6 +4408,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C24:C26"/>
@@ -4422,14 +4432,6 @@
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C9:C13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/게임 플레이 목록_240417.xlsx
+++ b/게임 플레이 목록_240417.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08015EAD-796F-4217-92C7-0E016F404E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB03C45-F54B-42B5-BFEC-6C2F61FB8013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="16200" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
@@ -1747,12 +1747,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(시너지 삭제 패치 이전 플레이)
+眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
+(24년 4월 4일 이후 플레이)
+2463억 명성 52987 眞 헌터
+1066억 명성 50291 眞 비질란테 
+메인 캐릭터 플레이 (던담 기준)
+&lt;레이드&gt;
+(시너지 삭제 패치 이전)
+시로코 출시 1주차 클리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(장점)
 1. 캐릭터, 장비 세팅에 따라 다양한 조작감
 - 방어구에서 출혈/중독/감전 등 상변 세팅(데미지형 상태이상)과 수면/아칸 등 비상변 세팅, 무기에서 스킬 데미지가 증가하는 근원과 캐릭터의 단점을 보완해 주는 결전같이 다양한 세팅에 따라 같은 캐릭터임에도 조작감이 다름
 - 물리/마법/하이브리드형 및 외전 포함한 67개의 직업과 직업에서도 어떤 스킬을 주력으로 사용하느냐에 따라 플레이 감각이 다양한 플레이 감각을 느낄 수 있음
 2. 신규/복귀 유저 지원 및 육성 이벤트로 쉬운 진입
-- 신규 캐릭터 출시 육성 이벤트로 인기 에픽 장비 기본 지급(출혈 세팅) 및 현 시즌 3.8유효급 커스텀 장비(딥 다이버 마스크, 던파맥스 헌터/비질란테 기준)를 직접 제작하게 만들면서 신규 캐릭터의 재미를 빠르게 느끼도록 설계
+- 신규 캐릭터 출시 육성 이벤트로 인기 고정 에픽 장비 세트 기본 지급(출혈 세팅) 및 현 시즌 3.8유효급 커스텀 장비(딥 다이버 마스크, 던파맥스 헌터/비질란테 기준)를 직접 제작하게 만들면서 신규 캐릭터의 재미를 빠르게 느끼도록 설계
 - 신규/복귀 유저가 쉽게 적응하도록 기본적인 세팅(탈리스만, 스위칭)을 무료로 지원하고 빠르게 최종 레이드에 진입하도록 돕는 신규 유저용 패키지를 판매하는 등 BM과도 연계 
 3. 다양한 플레이 편의성 존재
 1) 플레이 편의성
@@ -1775,18 +1787,6 @@
 → 인게임 밸런스 유지에 도움, 신규/복귀 유저의 경우 제한된 인게임 재화 생산량으로 과금을 하거나 반강제 서브 캐릭터 육성
 2. 육성 지원 이벤트 없이 키울 시 높은 육성 피로도 존재
 - 스토리 구간 간소화했음에도 다년간 서비스로 인한 긴 스토리로, 서브 캐릭터 육성 시 이미 본 스토리를 재반복하느라 높은 피로도 존재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(시너지 삭제 패치 이전 플레이)
-眞 넨마스터, 眞 인챈트리스 메인 캐릭터 플레이 
-(24년 4월 4일 이후 플레이)
-2463억 명성 52987 眞 헌터
-1066억 명성 50291 眞 비질란테 
-메인 캐릭터 플레이 (던담 기준)
-&lt;레이드&gt;
-(시너지 삭제 패치 이전)
-시로코 출시 1주차 클리어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2254,12 +2254,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2268,45 +2307,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2692,7 +2692,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14:H16"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2868,10 +2868,10 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2897,8 +2897,8 @@
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2922,8 +2922,8 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2947,8 +2947,8 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
@@ -2972,8 +2972,8 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
@@ -2994,65 +2994,65 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="400.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="A14" s="43">
         <v>6</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="I14" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="40" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
@@ -3076,8 +3076,8 @@
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="17" t="s">
         <v>0</v>
       </c>
@@ -3128,8 +3128,8 @@
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3155,8 +3155,8 @@
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="17" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3237,8 +3237,8 @@
       <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3264,8 +3264,8 @@
       <c r="A25" s="16">
         <v>15</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
@@ -3289,8 +3289,8 @@
       <c r="A26" s="16">
         <v>16</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="17" t="s">
         <v>36</v>
       </c>
@@ -3317,8 +3317,8 @@
       <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3347,8 +3347,8 @@
       <c r="A28" s="16">
         <v>18</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="A30" s="16">
         <v>20</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="A31" s="16">
         <v>21</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="17" t="s">
         <v>74</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="21" t="s">
         <v>19</v>
       </c>
@@ -3489,8 +3489,8 @@
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3517,7 +3517,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="44"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
@@ -3554,10 +3554,10 @@
       <c r="A36" s="16">
         <v>25</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3586,8 +3586,8 @@
       <c r="A37" s="16">
         <v>26</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
@@ -3611,8 +3611,8 @@
       <c r="A38" s="16">
         <v>27</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="17" t="s">
         <v>223</v>
       </c>
@@ -3639,8 +3639,8 @@
       <c r="A39" s="16">
         <v>28</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="17" t="s">
         <v>33</v>
       </c>
@@ -3667,8 +3667,8 @@
       <c r="A40" s="16">
         <v>29</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="17" t="s">
         <v>110</v>
       </c>
@@ -3695,8 +3695,8 @@
       <c r="A41" s="16">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
@@ -3720,8 +3720,8 @@
       <c r="A42" s="16">
         <v>31</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
@@ -3748,8 +3748,8 @@
       <c r="A43" s="16">
         <v>32</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="17" t="s">
         <v>57</v>
       </c>
@@ -3776,8 +3776,8 @@
       <c r="A44" s="16">
         <v>33</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42" t="s">
+      <c r="B44" s="44"/>
+      <c r="C44" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3806,8 +3806,8 @@
       <c r="A45" s="16">
         <v>34</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3831,8 +3831,8 @@
       <c r="A46" s="16">
         <v>35</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="17" t="s">
         <v>224</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="A47" s="16">
         <v>36</v>
       </c>
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="20" t="s">
         <v>9</v>
       </c>
@@ -3886,8 +3886,8 @@
       <c r="A48" s="16">
         <v>37</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3916,8 +3916,8 @@
       <c r="A49" s="16">
         <v>38</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="17" t="s">
         <v>35</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="A50" s="16">
         <v>39</v>
       </c>
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="A51" s="16">
         <v>40</v>
       </c>
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="17" t="s">
         <v>59</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="A52" s="16">
         <v>41</v>
       </c>
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="17" t="s">
         <v>43</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="A53" s="16">
         <v>42</v>
       </c>
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="21" t="s">
         <v>24</v>
       </c>
@@ -4058,8 +4058,8 @@
       <c r="A54" s="16">
         <v>43</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4088,8 +4088,8 @@
       <c r="A55" s="16">
         <v>44</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="17" t="s">
         <v>63</v>
       </c>
@@ -4116,8 +4116,8 @@
       <c r="A56" s="16">
         <v>45</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="42" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="55" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4143,8 +4143,8 @@
       <c r="A57" s="16">
         <v>46</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="45"/>
-      <c r="C58" s="44"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
@@ -4206,10 +4206,10 @@
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -4238,8 +4238,8 @@
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="17" t="s">
         <v>105</v>
       </c>
@@ -4266,8 +4266,8 @@
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="17" t="s">
         <v>109</v>
       </c>
@@ -4294,8 +4294,8 @@
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42" t="s">
+      <c r="B63" s="44"/>
+      <c r="C63" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4324,8 +4324,8 @@
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="17" t="s">
         <v>107</v>
       </c>
@@ -4352,8 +4352,8 @@
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="17" t="s">
         <v>108</v>
       </c>
@@ -4380,7 +4380,7 @@
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="17" t="s">
         <v>37</v>
       </c>
@@ -4408,14 +4408,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C24:C26"/>
@@ -4432,6 +4424,14 @@
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C9:C13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/게임 플레이 목록_240417.xlsx
+++ b/게임 플레이 목록_240417.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB03C45-F54B-42B5-BFEC-6C2F61FB8013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57870D-7104-47BF-9604-7C69E0E9CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="16200" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="16200" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
   <sheets>
     <sheet name="게임 플레이 목록" sheetId="1" r:id="rId1"/>
@@ -1772,7 +1772,7 @@
 - 스토리 배속 및 스킵 기능으로 빠르게 진행
 - 이벤트로 솔로 플레이 공격력 증가 및 던전 난이도 선택이 가능해 원할 시 빠른 플레이 가능
 2) 이동 편의성
-- 세리아방 바로 가기 버튼, 맵 이동 포탈 버튼으로 이동 동선 간소화
+- 세리아방 바로 가기 버튼, 워프포탈(맵 이동) 버튼으로 이동 동선 간소화
 3) 성장/장비 가이드
 - 110레벨 달성 시 스펙업 관련 성장/장비 가이드 시스템으로 보상을 제공해 시스템에 익숙해지도록 설계
 4. 다양한 육성 요소로 챙긴 저점과 고점 
@@ -2254,6 +2254,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2263,15 +2281,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2298,15 +2307,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2691,8 +2691,8 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14:J16"/>
+      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -2868,10 +2868,10 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2897,8 +2897,8 @@
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2922,8 +2922,8 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2947,8 +2947,8 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
@@ -2972,8 +2972,8 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
@@ -2994,65 +2994,65 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="400.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="40">
         <v>6</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="46" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:11" ht="409.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" ht="173.25" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
@@ -3076,8 +3076,8 @@
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="17" t="s">
         <v>0</v>
       </c>
@@ -3128,8 +3128,8 @@
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3155,8 +3155,8 @@
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="17" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
@@ -3207,7 +3207,7 @@
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3237,8 +3237,8 @@
       <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3264,8 +3264,8 @@
       <c r="A25" s="16">
         <v>15</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
@@ -3289,8 +3289,8 @@
       <c r="A26" s="16">
         <v>16</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="17" t="s">
         <v>36</v>
       </c>
@@ -3317,8 +3317,8 @@
       <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3347,8 +3347,8 @@
       <c r="A28" s="16">
         <v>18</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="A30" s="16">
         <v>20</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="A31" s="16">
         <v>21</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="17" t="s">
         <v>74</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="21" t="s">
         <v>19</v>
       </c>
@@ -3489,8 +3489,8 @@
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3517,7 +3517,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
@@ -3554,10 +3554,10 @@
       <c r="A36" s="16">
         <v>25</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="42" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3586,8 +3586,8 @@
       <c r="A37" s="16">
         <v>26</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
@@ -3611,8 +3611,8 @@
       <c r="A38" s="16">
         <v>27</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="56"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="17" t="s">
         <v>223</v>
       </c>
@@ -3639,8 +3639,8 @@
       <c r="A39" s="16">
         <v>28</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="56"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="17" t="s">
         <v>33</v>
       </c>
@@ -3667,8 +3667,8 @@
       <c r="A40" s="16">
         <v>29</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="17" t="s">
         <v>110</v>
       </c>
@@ -3695,8 +3695,8 @@
       <c r="A41" s="16">
         <v>30</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
@@ -3720,8 +3720,8 @@
       <c r="A42" s="16">
         <v>31</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="56"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
@@ -3748,8 +3748,8 @@
       <c r="A43" s="16">
         <v>32</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="56"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="17" t="s">
         <v>57</v>
       </c>
@@ -3776,8 +3776,8 @@
       <c r="A44" s="16">
         <v>33</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="55" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="42" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3806,8 +3806,8 @@
       <c r="A45" s="16">
         <v>34</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="56"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3831,8 +3831,8 @@
       <c r="A46" s="16">
         <v>35</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="56"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="17" t="s">
         <v>224</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="A47" s="16">
         <v>36</v>
       </c>
-      <c r="B47" s="44"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="20" t="s">
         <v>9</v>
       </c>
@@ -3886,8 +3886,8 @@
       <c r="A48" s="16">
         <v>37</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3916,8 +3916,8 @@
       <c r="A49" s="16">
         <v>38</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="57"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="17" t="s">
         <v>35</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="A50" s="16">
         <v>39</v>
       </c>
-      <c r="B50" s="44"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="A51" s="16">
         <v>40</v>
       </c>
-      <c r="B51" s="44"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="17" t="s">
         <v>59</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="A52" s="16">
         <v>41</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="17" t="s">
         <v>43</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="A53" s="16">
         <v>42</v>
       </c>
-      <c r="B53" s="44"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="21" t="s">
         <v>24</v>
       </c>
@@ -4058,8 +4058,8 @@
       <c r="A54" s="16">
         <v>43</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="55" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4088,8 +4088,8 @@
       <c r="A55" s="16">
         <v>44</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="56"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="17" t="s">
         <v>63</v>
       </c>
@@ -4116,8 +4116,8 @@
       <c r="A56" s="16">
         <v>45</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="55" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="42" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4143,8 +4143,8 @@
       <c r="A57" s="16">
         <v>46</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="56"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="45"/>
-      <c r="C58" s="57"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
@@ -4206,10 +4206,10 @@
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -4238,8 +4238,8 @@
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="56"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="17" t="s">
         <v>105</v>
       </c>
@@ -4266,8 +4266,8 @@
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="56"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="17" t="s">
         <v>109</v>
       </c>
@@ -4294,8 +4294,8 @@
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="42" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4324,8 +4324,8 @@
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="56"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="17" t="s">
         <v>107</v>
       </c>
@@ -4352,8 +4352,8 @@
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="57"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="17" t="s">
         <v>108</v>
       </c>
@@ -4380,7 +4380,7 @@
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="44"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="17" t="s">
         <v>37</v>
       </c>
@@ -4408,6 +4408,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C24:C26"/>
@@ -4424,14 +4432,6 @@
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C9:C13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
